--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Backtrace_Prod_simple_tob_en.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Backtrace_Prod_simple_tob_en.xlsx
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Inquired Company:</t>
   </si>
   <si>
     <t>Product</t>
@@ -168,12 +165,32 @@
   <si>
     <t>Type of Business</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Inquired</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Company:</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,6 +458,23 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="30">
@@ -972,36 +1006,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="0"/>
       </left>
       <right/>
@@ -1208,6 +1212,34 @@
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1328,7 +1360,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="29" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -1375,14 +1407,7 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
@@ -1401,113 +1426,143 @@
     <xf numFmtId="1" fontId="8" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="37" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="35" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="33" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1524,51 +1579,44 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="37" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="37" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="38" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1985,7 +2033,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:S103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
@@ -2008,153 +2056,158 @@
     <col min="15" max="16384" width="11.3984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="1:19" s="80" customFormat="1" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="51"/>
-    </row>
-    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="79"/>
+    </row>
+    <row r="2" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-    </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
-    </row>
-    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="62" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+    </row>
+    <row r="3" spans="1:19" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="52"/>
+    </row>
+    <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65" t="s">
+      <c r="E4" s="47"/>
+      <c r="F4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66" t="s">
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="67"/>
+      <c r="B5" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="60" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="62"/>
-      <c r="B5" s="65" t="s">
+      <c r="E5" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="65" t="s">
+      <c r="K5" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="65"/>
+    </row>
+    <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="69"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="60"/>
-    </row>
-    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="33" t="s">
+      <c r="G6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="H6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="60"/>
-    </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I6" s="47"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="65"/>
+    </row>
+    <row r="7" spans="1:19" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>2</v>
       </c>
@@ -2169,1562 +2222,1562 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="34"/>
       <c r="N7" s="16"/>
     </row>
-    <row r="8" spans="1:14" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="56"/>
-    </row>
-    <row r="9" spans="1:14" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="57" t="s">
+    <row r="8" spans="1:19" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="64"/>
+    </row>
+    <row r="9" spans="1:19" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="57"/>
+    </row>
+    <row r="10" spans="1:19" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="57"/>
+    </row>
+    <row r="11" spans="1:19" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="57"/>
+    </row>
+    <row r="12" spans="1:19" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="59"/>
-    </row>
-    <row r="10" spans="1:14" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="59"/>
-    </row>
-    <row r="11" spans="1:14" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="57" t="s">
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+    </row>
+    <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="52"/>
+    </row>
+    <row r="14" spans="1:19" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="67"/>
+      <c r="B15" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="59"/>
-    </row>
-    <row r="12" spans="1:14" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="59"/>
-    </row>
-    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="48"/>
-    </row>
-    <row r="14" spans="1:14" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="60" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="62"/>
-      <c r="B15" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="52" t="s">
+      <c r="N15" s="65"/>
+    </row>
+    <row r="16" spans="1:19" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="68"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="60"/>
-    </row>
-    <row r="16" spans="1:14" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="63"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="27" t="s">
+      <c r="G16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="H16" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="53"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="61"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="66"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="28"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="26"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="23"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="29"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="22"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="19"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="29"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="22"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="19"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="22"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="19"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="22"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="19"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="22"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="22"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="19"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="22"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="19"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="22"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="19"/>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="22"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="19"/>
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="22"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="19"/>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="22"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="19"/>
     </row>
     <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="22"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="19"/>
     </row>
     <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="22"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="19"/>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="22"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="19"/>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="22"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="19"/>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="22"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="19"/>
     </row>
     <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="22"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="19"/>
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="22"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="19"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="22"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="19"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="22"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="19"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="22"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="19"/>
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="22"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="19"/>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="22"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="19"/>
     </row>
     <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="22"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="19"/>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="22"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="19"/>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="22"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="19"/>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="22"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="19"/>
     </row>
     <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="22"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="19"/>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="22"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="19"/>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="22"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="19"/>
     </row>
     <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="22"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="19"/>
     </row>
     <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="41"/>
-      <c r="N49" s="22"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="19"/>
     </row>
     <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="41"/>
-      <c r="N50" s="22"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="19"/>
     </row>
     <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="22"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="19"/>
     </row>
     <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="22"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="19"/>
     </row>
     <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="41"/>
-      <c r="N53" s="22"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="19"/>
     </row>
     <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="41"/>
-      <c r="N54" s="22"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="19"/>
     </row>
     <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="41"/>
-      <c r="N55" s="22"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="19"/>
     </row>
     <row r="56" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="41"/>
-      <c r="N56" s="22"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="19"/>
     </row>
     <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="41"/>
-      <c r="N57" s="22"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="19"/>
     </row>
     <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="41"/>
-      <c r="N58" s="22"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="19"/>
     </row>
     <row r="59" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
-      <c r="M59" s="41"/>
-      <c r="N59" s="22"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="19"/>
     </row>
     <row r="60" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="22"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="19"/>
     </row>
     <row r="61" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="41"/>
-      <c r="N61" s="22"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="19"/>
     </row>
     <row r="62" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="41"/>
-      <c r="N62" s="22"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="32"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="19"/>
     </row>
     <row r="63" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
-      <c r="L63" s="37"/>
-      <c r="M63" s="41"/>
-      <c r="N63" s="22"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="19"/>
     </row>
     <row r="64" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="37"/>
-      <c r="M64" s="41"/>
-      <c r="N64" s="22"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="19"/>
     </row>
     <row r="65" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="37"/>
-      <c r="K65" s="37"/>
-      <c r="L65" s="37"/>
-      <c r="M65" s="41"/>
-      <c r="N65" s="22"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="19"/>
     </row>
     <row r="66" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="37"/>
-      <c r="K66" s="37"/>
-      <c r="L66" s="37"/>
-      <c r="M66" s="41"/>
-      <c r="N66" s="22"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="32"/>
+      <c r="L66" s="32"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="19"/>
     </row>
     <row r="67" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="37"/>
-      <c r="K67" s="37"/>
-      <c r="L67" s="37"/>
-      <c r="M67" s="41"/>
-      <c r="N67" s="22"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="19"/>
     </row>
     <row r="68" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
-      <c r="M68" s="41"/>
-      <c r="N68" s="22"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="19"/>
     </row>
     <row r="69" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="37"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="41"/>
-      <c r="N69" s="22"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="32"/>
+      <c r="L69" s="32"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="19"/>
     </row>
     <row r="70" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
-      <c r="B70" s="34"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="37"/>
-      <c r="K70" s="37"/>
-      <c r="L70" s="37"/>
-      <c r="M70" s="41"/>
-      <c r="N70" s="22"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="32"/>
+      <c r="L70" s="32"/>
+      <c r="M70" s="36"/>
+      <c r="N70" s="19"/>
     </row>
     <row r="71" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="37"/>
-      <c r="K71" s="37"/>
-      <c r="L71" s="37"/>
-      <c r="M71" s="41"/>
-      <c r="N71" s="22"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="32"/>
+      <c r="L71" s="32"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="19"/>
     </row>
     <row r="72" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="34"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="41"/>
-      <c r="N72" s="22"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="32"/>
+      <c r="L72" s="32"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="19"/>
     </row>
     <row r="73" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="37"/>
-      <c r="K73" s="37"/>
-      <c r="L73" s="37"/>
-      <c r="M73" s="41"/>
-      <c r="N73" s="22"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="32"/>
+      <c r="L73" s="32"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="19"/>
     </row>
     <row r="74" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
-      <c r="B74" s="34"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="34"/>
-      <c r="J74" s="37"/>
-      <c r="K74" s="37"/>
-      <c r="L74" s="37"/>
-      <c r="M74" s="41"/>
-      <c r="N74" s="22"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="32"/>
+      <c r="M74" s="36"/>
+      <c r="N74" s="19"/>
     </row>
     <row r="75" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="37"/>
-      <c r="K75" s="37"/>
-      <c r="L75" s="37"/>
-      <c r="M75" s="41"/>
-      <c r="N75" s="22"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="32"/>
+      <c r="L75" s="32"/>
+      <c r="M75" s="36"/>
+      <c r="N75" s="19"/>
     </row>
     <row r="76" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="34"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="37"/>
-      <c r="M76" s="41"/>
-      <c r="N76" s="22"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="32"/>
+      <c r="K76" s="32"/>
+      <c r="L76" s="32"/>
+      <c r="M76" s="36"/>
+      <c r="N76" s="19"/>
     </row>
     <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="37"/>
-      <c r="K77" s="37"/>
-      <c r="L77" s="37"/>
-      <c r="M77" s="41"/>
-      <c r="N77" s="22"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="32"/>
+      <c r="K77" s="32"/>
+      <c r="L77" s="32"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="19"/>
     </row>
     <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="34"/>
-      <c r="J78" s="37"/>
-      <c r="K78" s="37"/>
-      <c r="L78" s="37"/>
-      <c r="M78" s="41"/>
-      <c r="N78" s="22"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="32"/>
+      <c r="L78" s="32"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="19"/>
     </row>
     <row r="79" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="37"/>
-      <c r="K79" s="37"/>
-      <c r="L79" s="37"/>
-      <c r="M79" s="41"/>
-      <c r="N79" s="22"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="32"/>
+      <c r="K79" s="32"/>
+      <c r="L79" s="32"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="19"/>
     </row>
     <row r="80" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="37"/>
-      <c r="K80" s="37"/>
-      <c r="L80" s="37"/>
-      <c r="M80" s="41"/>
-      <c r="N80" s="22"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="32"/>
+      <c r="K80" s="32"/>
+      <c r="L80" s="32"/>
+      <c r="M80" s="36"/>
+      <c r="N80" s="19"/>
     </row>
     <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
-      <c r="B81" s="34"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="36"/>
-      <c r="G81" s="36"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="34"/>
-      <c r="J81" s="37"/>
-      <c r="K81" s="37"/>
-      <c r="L81" s="37"/>
-      <c r="M81" s="41"/>
-      <c r="N81" s="22"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="32"/>
+      <c r="K81" s="32"/>
+      <c r="L81" s="32"/>
+      <c r="M81" s="36"/>
+      <c r="N81" s="19"/>
     </row>
     <row r="82" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
-      <c r="B82" s="34"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="36"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="37"/>
-      <c r="K82" s="37"/>
-      <c r="L82" s="37"/>
-      <c r="M82" s="41"/>
-      <c r="N82" s="22"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="32"/>
+      <c r="K82" s="32"/>
+      <c r="L82" s="32"/>
+      <c r="M82" s="36"/>
+      <c r="N82" s="19"/>
     </row>
     <row r="83" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
-      <c r="B83" s="34"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="36"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="34"/>
-      <c r="J83" s="37"/>
-      <c r="K83" s="37"/>
-      <c r="L83" s="37"/>
-      <c r="M83" s="41"/>
-      <c r="N83" s="22"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="32"/>
+      <c r="K83" s="32"/>
+      <c r="L83" s="32"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="19"/>
     </row>
     <row r="84" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
-      <c r="B84" s="34"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="36"/>
-      <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="37"/>
-      <c r="K84" s="37"/>
-      <c r="L84" s="37"/>
-      <c r="M84" s="41"/>
-      <c r="N84" s="22"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="32"/>
+      <c r="K84" s="32"/>
+      <c r="L84" s="32"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="19"/>
     </row>
     <row r="85" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
-      <c r="B85" s="34"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="36"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="36"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="37"/>
-      <c r="K85" s="37"/>
-      <c r="L85" s="37"/>
-      <c r="M85" s="41"/>
-      <c r="N85" s="22"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="32"/>
+      <c r="K85" s="32"/>
+      <c r="L85" s="32"/>
+      <c r="M85" s="36"/>
+      <c r="N85" s="19"/>
     </row>
     <row r="86" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
-      <c r="B86" s="34"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="36"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="37"/>
-      <c r="K86" s="37"/>
-      <c r="L86" s="37"/>
-      <c r="M86" s="41"/>
-      <c r="N86" s="22"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="32"/>
+      <c r="K86" s="32"/>
+      <c r="L86" s="32"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="19"/>
     </row>
     <row r="87" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
-      <c r="B87" s="34"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="37"/>
-      <c r="K87" s="37"/>
-      <c r="L87" s="37"/>
-      <c r="M87" s="41"/>
-      <c r="N87" s="22"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="32"/>
+      <c r="K87" s="32"/>
+      <c r="L87" s="32"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="19"/>
     </row>
     <row r="88" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
-      <c r="B88" s="34"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="37"/>
-      <c r="K88" s="37"/>
-      <c r="L88" s="37"/>
-      <c r="M88" s="41"/>
-      <c r="N88" s="22"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="32"/>
+      <c r="K88" s="32"/>
+      <c r="L88" s="32"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="19"/>
     </row>
     <row r="89" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
-      <c r="B89" s="34"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="37"/>
-      <c r="K89" s="37"/>
-      <c r="L89" s="37"/>
-      <c r="M89" s="41"/>
-      <c r="N89" s="22"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="31"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="32"/>
+      <c r="K89" s="32"/>
+      <c r="L89" s="32"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="19"/>
     </row>
     <row r="90" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
-      <c r="B90" s="34"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="34"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="37"/>
-      <c r="K90" s="37"/>
-      <c r="L90" s="37"/>
-      <c r="M90" s="41"/>
-      <c r="N90" s="22"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="32"/>
+      <c r="K90" s="32"/>
+      <c r="L90" s="32"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="19"/>
     </row>
     <row r="91" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
-      <c r="B91" s="34"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="34"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="34"/>
-      <c r="J91" s="37"/>
-      <c r="K91" s="37"/>
-      <c r="L91" s="37"/>
-      <c r="M91" s="41"/>
-      <c r="N91" s="22"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="32"/>
+      <c r="K91" s="32"/>
+      <c r="L91" s="32"/>
+      <c r="M91" s="36"/>
+      <c r="N91" s="19"/>
     </row>
     <row r="92" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
-      <c r="B92" s="34"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="34"/>
-      <c r="E92" s="34"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="37"/>
-      <c r="K92" s="37"/>
-      <c r="L92" s="37"/>
-      <c r="M92" s="41"/>
-      <c r="N92" s="22"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="29"/>
+      <c r="J92" s="32"/>
+      <c r="K92" s="32"/>
+      <c r="L92" s="32"/>
+      <c r="M92" s="36"/>
+      <c r="N92" s="19"/>
     </row>
     <row r="93" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
-      <c r="B93" s="34"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="34"/>
-      <c r="E93" s="34"/>
-      <c r="F93" s="36"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="34"/>
-      <c r="J93" s="37"/>
-      <c r="K93" s="37"/>
-      <c r="L93" s="37"/>
-      <c r="M93" s="41"/>
-      <c r="N93" s="22"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="31"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="32"/>
+      <c r="K93" s="32"/>
+      <c r="L93" s="32"/>
+      <c r="M93" s="36"/>
+      <c r="N93" s="19"/>
     </row>
     <row r="94" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
-      <c r="B94" s="34"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="34"/>
-      <c r="E94" s="34"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="34"/>
-      <c r="J94" s="37"/>
-      <c r="K94" s="37"/>
-      <c r="L94" s="37"/>
-      <c r="M94" s="41"/>
-      <c r="N94" s="22"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="29"/>
+      <c r="J94" s="32"/>
+      <c r="K94" s="32"/>
+      <c r="L94" s="32"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="19"/>
     </row>
     <row r="95" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
-      <c r="B95" s="34"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="34"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="36"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="34"/>
-      <c r="J95" s="37"/>
-      <c r="K95" s="37"/>
-      <c r="L95" s="37"/>
-      <c r="M95" s="41"/>
-      <c r="N95" s="22"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="29"/>
+      <c r="J95" s="32"/>
+      <c r="K95" s="32"/>
+      <c r="L95" s="32"/>
+      <c r="M95" s="36"/>
+      <c r="N95" s="19"/>
     </row>
     <row r="96" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
-      <c r="B96" s="34"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="34"/>
-      <c r="J96" s="37"/>
-      <c r="K96" s="37"/>
-      <c r="L96" s="37"/>
-      <c r="M96" s="41"/>
-      <c r="N96" s="22"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="29"/>
+      <c r="J96" s="32"/>
+      <c r="K96" s="32"/>
+      <c r="L96" s="32"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="19"/>
     </row>
     <row r="97" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
-      <c r="B97" s="34"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="34"/>
-      <c r="E97" s="34"/>
-      <c r="F97" s="36"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="34"/>
-      <c r="J97" s="37"/>
-      <c r="K97" s="37"/>
-      <c r="L97" s="37"/>
-      <c r="M97" s="41"/>
-      <c r="N97" s="22"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="29"/>
+      <c r="J97" s="32"/>
+      <c r="K97" s="32"/>
+      <c r="L97" s="32"/>
+      <c r="M97" s="36"/>
+      <c r="N97" s="19"/>
     </row>
     <row r="98" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
-      <c r="B98" s="34"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="36"/>
-      <c r="G98" s="36"/>
-      <c r="H98" s="36"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="37"/>
-      <c r="K98" s="37"/>
-      <c r="L98" s="37"/>
-      <c r="M98" s="41"/>
-      <c r="N98" s="22"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="31"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="31"/>
+      <c r="I98" s="29"/>
+      <c r="J98" s="32"/>
+      <c r="K98" s="32"/>
+      <c r="L98" s="32"/>
+      <c r="M98" s="36"/>
+      <c r="N98" s="19"/>
     </row>
     <row r="99" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
-      <c r="B99" s="34"/>
-      <c r="C99" s="34"/>
-      <c r="D99" s="34"/>
-      <c r="E99" s="34"/>
-      <c r="F99" s="36"/>
-      <c r="G99" s="36"/>
-      <c r="H99" s="36"/>
-      <c r="I99" s="34"/>
-      <c r="J99" s="37"/>
-      <c r="K99" s="37"/>
-      <c r="L99" s="37"/>
-      <c r="M99" s="41"/>
-      <c r="N99" s="22"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="31"/>
+      <c r="G99" s="31"/>
+      <c r="H99" s="31"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="32"/>
+      <c r="K99" s="32"/>
+      <c r="L99" s="32"/>
+      <c r="M99" s="36"/>
+      <c r="N99" s="19"/>
     </row>
     <row r="100" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
-      <c r="B100" s="34"/>
-      <c r="C100" s="34"/>
-      <c r="D100" s="34"/>
-      <c r="E100" s="34"/>
-      <c r="F100" s="36"/>
-      <c r="G100" s="36"/>
-      <c r="H100" s="36"/>
-      <c r="I100" s="34"/>
-      <c r="J100" s="37"/>
-      <c r="K100" s="37"/>
-      <c r="L100" s="37"/>
-      <c r="M100" s="41"/>
-      <c r="N100" s="22"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="31"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="31"/>
+      <c r="I100" s="29"/>
+      <c r="J100" s="32"/>
+      <c r="K100" s="32"/>
+      <c r="L100" s="32"/>
+      <c r="M100" s="36"/>
+      <c r="N100" s="19"/>
     </row>
     <row r="101" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
-      <c r="B101" s="34"/>
-      <c r="C101" s="34"/>
-      <c r="D101" s="34"/>
-      <c r="E101" s="34"/>
-      <c r="F101" s="36"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="34"/>
-      <c r="J101" s="37"/>
-      <c r="K101" s="37"/>
-      <c r="L101" s="37"/>
-      <c r="M101" s="41"/>
-      <c r="N101" s="22"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="31"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="31"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="32"/>
+      <c r="K101" s="32"/>
+      <c r="L101" s="32"/>
+      <c r="M101" s="36"/>
+      <c r="N101" s="19"/>
     </row>
     <row r="102" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="2"/>
@@ -3739,7 +3792,7 @@
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
-      <c r="M102" s="42"/>
+      <c r="M102" s="37"/>
       <c r="N102" s="16"/>
     </row>
     <row r="103" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3748,7 +3801,33 @@
       <c r="M103" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="42">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
     <mergeCell ref="J14:M14"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="B15:B16"/>
@@ -3765,37 +3844,13 @@
     <mergeCell ref="A13:N13"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="A10:N10"/>
-    <mergeCell ref="A11:N11"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F3 F17:F1048576 F7 F13">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17:F1048576 F7 F13 F2:F3">
       <formula1>1</formula1>
       <formula2>31</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G3 G17:G1048576 G7 G13">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G17:G1048576 G7 G13 G2:G3">
       <formula1>1</formula1>
       <formula2>12</formula2>
     </dataValidation>
